--- a/LIBA14/files/Q14.xlsx
+++ b/LIBA14/files/Q14.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C41889F-8A65-4FB1-B8F7-4BAB37232B72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AE01EE-DEDF-4AAE-B7A7-5C00446C2B5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/LIBA14/files/Q14.xlsx
+++ b/LIBA14/files/Q14.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AE01EE-DEDF-4AAE-B7A7-5C00446C2B5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ABED8A-664A-40CF-80FA-55C6B9A459CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62105F43-9488-46EA-B016-E960B6707B94}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1779,9 +1779,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C03733B-F283-4EBC-A293-E57D0B4FFCA2}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
@@ -1798,17 +1798,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LIBA14/files/Q14.xlsx
+++ b/LIBA14/files/Q14.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ABED8A-664A-40CF-80FA-55C6B9A459CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B124B4B-E691-4A40-91BB-F42297B681AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62105F43-9488-46EA-B016-E960B6707B94}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1781,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C03733B-F283-4EBC-A293-E57D0B4FFCA2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>

--- a/LIBA14/files/Q14.xlsx
+++ b/LIBA14/files/Q14.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B124B4B-E691-4A40-91BB-F42297B681AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7B2B57-C9C4-4108-83B6-F46C518057AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1781,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C03733B-F283-4EBC-A293-E57D0B4FFCA2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
